--- a/medicine/Psychotrope/Rosé-de-loire/Rosé-de-loire.xlsx
+++ b/medicine/Psychotrope/Rosé-de-loire/Rosé-de-loire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ros%C3%A9-de-loire</t>
+          <t>Rosé-de-loire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le rosé de Loire est un vin rosé d'appellation d'origine contrôlée produit sur les aires d'appellation anjou, saumur et touraine, soit sur une vaste partie du vignoble de la vallée de la Loire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ros%C3%A9-de-loire</t>
+          <t>Rosé-de-loire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">De l'Antiquité au Moyen Âge
-Période moderne
-Période contemporaine
-Le rosé-de-loire a été reconnu AOC par le décret du 4 septembre 1974.
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rosé-de-loire a été reconnu AOC par le décret du 4 septembre 1974.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ros%C3%A9-de-loire</t>
+          <t>Rosé-de-loire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ros%C3%A9-de-loire</t>
+          <t>Rosé-de-loire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,12 +589,12 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La zone de production est située à l'intérieur des délimitations des appellations anjou, saumur et touraine.
-Orographie
-Géologie
-Climatologie</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone de production est située à l'intérieur des délimitations des appellations anjou, saumur et touraine.
+</t>
         </is>
       </c>
     </row>
@@ -587,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ros%C3%A9-de-loire</t>
+          <t>Rosé-de-loire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,50 +624,154 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Présentation
-Représente une surface de 1 000 hectares. Les rendements sont de l'ordre de 60 hectolitres/hectares donnant environ 60 000 hectolitres par an en moyenne.
-Aire d'appellation
-La récolte des raisins, la vinification et l'élaboration des vins susceptibles de bénéficier de l'appellation d'origine contrôlée rosé-de-loire sont assurées sur le territoire des communes suivantes :
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Représente une surface de 1 000 hectares. Les rendements sont de l'ordre de 60 hectolitres/hectares donnant environ 60 000 hectolitres par an en moyenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rosé-de-loire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ros%C3%A9-de-loire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aire d'appellation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La récolte des raisins, la vinification et l'élaboration des vins susceptibles de bénéficier de l'appellation d'origine contrôlée rosé-de-loire sont assurées sur le territoire des communes suivantes :
 Département de Maine-et-Loire : Les Alleuds, Allonnes, Ambillou-Château, Angers, Antoigné, Artannes-sur-Thouet, Aubigné-sur-Layon, Beaulieu-sur-Layon, Blaison-Gohier, Bouchemaine, Bouzillé, Brain-sur-Allonnes, Brézé, Brigné, Brissac-Quincé, Brossay, Cernusson, Les Cerqueux-sous-Passavant, Chacé, Chalonnes-sur-Loire, Champ-sur-Layon, Champtocé-sur-Loire, Champtoceaux, Chanzeaux, La Chapelle-Saint-Florent, Charcé-Saint-Ellier-sur-Aubance, Chaudefonds-sur-Layon, Chavagnes, Chemellier, Chênehutte-Trèves-Cunault, Cizay-la-Madeleine, Cléré-sur-Layon, Concourson-sur-Layon, Le Coudray-Macouard, Courchamps, Coutures, Denée, Dénezé-sous-Doué, Distré, Doué-la-Fontaine, Drain, Epieds, Faveraye-Mâchelles, Faye-d'Anjou, Fontaine-Milon, Fontevraud-l'Abbaye, Forges, La Fosse-de-Tigné, Gennes, Grézillé, Huillé, Ingrandes, Juigné-sur-Loire, La Jumellière, Landemont, Liré, Louerre, Louresse-Rochemenier, Lué-en-Baugeois, Luigné, Le Marillais, Martigné-Briand, Meigné, Le Mesnil-en-Vallée, Montfort, Montilliers, Montjean-sur-Loire, Montreuil-Bellay, Montsoreau, Mozé-sur-Louet, Mûrs-Erigné, Notre-Dame-d'Allençon, Noyant-la-Plaine, Nueil-sur-Layon, Parnay, Passavant-sur-Layon, Pellouailles-les-Vignes, La Pommeraye, La Possonnière, Le Puy-Notre-Dame, Rablay-sur-Layon, Rochefort-sur-Loire, Rou-Marson, Saint-Aubin-de-Luigné, Saint-Cyr-en-Bourg, Saint-Florent-le-Vieil, Saint-Georges-sur-Loire, Saint-Georges-sur-Layon, Saint-Georges-des-Sept-Voies, Saint-Germain-des-Prés, Saint-Jean-des-Mauvrets, Saint-Just-sur-Dive, Saint-Lambert-du-Lattay, Saint-Laurent-de-la-Plaine, Saint-Laurent-du-Mottay, Saint-Macaire-du-Bois, Saint-Melaine-sur-Aubance, Saint-Rémy-la-Varenne, Saint-Saturnin-sur-Loire, Saint-Sigismond, Saint-Sulpice-sur-Loire, Saint-Sylvain-d'Anjou, Sainte-Gemmes-sur-Loire, Saulgé-l'Hôpital, Saumur, Savennières, Soucelles, Soulaines-sur-Aubance, Souzay-Champigny, Tancoigné, Thouarcé, Le Thoureil, Tigné, Trémont, Turquant, Les Ulmes, Valanjou, La Varenne, Varennes-sur-Loire, Varrains, Vauchrétien, Vaudelnay, Les Verchers-sur-Layon, Verrie, Vihiers, Villevêque.
 Département des Deux-Sèvres : Argenton-l'Église, Bouillé-Loretz, Bouillé-Saint-Paul, Brion-près-Thouet, Cersay, Louzy, Mauzé-Thouarsais, Saint-Cyr-la-Lande, Saint-Martin-de-Mâcon, Saint-Martin-de-Sanzay, Sainte-Radegonde, Sainte-Verge, Thouars, Tourtenay.
 Département de la Vienne : Berrie, Curçay-sur-Dive, Glénouze, Pouançay, Ranton, Saint-Léger-de-Montbrillais, Saix, Ternay, Les Trois-Moutiers.
 Département d'Indre-et-Loire : Amboise, Anché, Artannes-sur-Indre, Athée-sur-Cher, Avoine, Avon-les-Roches, Azay-le-Rideau, Azay-sur-Cher, Beaumont-en-Véron, Benais, Bléré, Bossay-sur-Claise, Bourgueil, Brizay, Candes-Saint-Martin, Cangey, Chambray-lès-Tours, Chançay, Chanceaux-sur-Choisille, La Chapelle-sur-Loire, Chargé, Cheillé, Chemillé-sur-Indrois, Chenonceaux, Chinon, Chisseaux, Chouzé-sur-Loire, Cinais, Cinq-Mars-la-Pile, Civray-de-Touraine, Couziers, Cravant-les-Coteaux, La Croix-en-Touraine, Crouzilles, Dierre, Draché, Epeigné-les-Bois, Esvres, Fondettes, Francueil, Genillé, Huismes, L'Ile-Bouchard, Ingrandes-de-Touraine, Joué-les-Tours, Langeais, Larçay, Lémeré, Lerné, Lignières-de-Touraine, Ligré, Limeray, Lussault-sur-Loire, Luynes, Luzillé, Marçay, Montlouis-sur-Loire, Montreuil-en-Touraine, Mosnes, Nazelles-Négron, Neuillé-le-Lierre, Noizay, Panzoult, Parçay-Meslay, Pocé-sur-Cisse, Pont-de-Ruan, Razines, Restigné, Reugny, Rigny-Ussé, Rivarennes, Rivière, La Roche-Clermault, Rochecorbon, Saché, Saint-Avertin, Saint-Benoît-la-Forêt, Saint-Etienne-de-Chigny, Saint-Germain-sur-Vienne, Saint-Martin-le-Beau, Saint-Michel-sur-Loire, Saint-Nicolas-de-Bourgueil, Saint-Ouen-les-Vignes, Saint-Patrice, Saint-Règle, Sainte-Maure-de-Touraine, Savigny-en-Véron, Savonnières, Sazilly, Seuilly, Souvigny-de-Touraine, Tavant, Theneuil, Thilouze, Thizay, Tours, Vallères, Véretz, Vernou-sur-Brenne, Villaines-les-Rochers, Vouvray.
-Département de Loir-et-Cher : Angé, Blois, Bourré, Chailles, Chambon-sur-Cisse, Châteauvieux, Châtillon-sur-Cher, Chaumont-sur-Loire, Chémery, Chissay-en-Touraine, Choussy, Chouzy-sur-Cisse, Contres, Couddes, Couffi, Faverolles-sur-Cher, Mareuil-sur-Cher, Méhers, Mesland, Meusnes, Molineuf, Monteaux, Monthou-sur-Bièvre, Monthou-sur-Cher, Montrichard, Noyers-sur-Cher, Oisly, Onzain, Pontlevoy, Pouillé, Rilly-sur-Loire, Saint-Aignan, Saint-Georges-sur-Cher, Saint-Julien-de-Chedon, Saint-Romain-sur-Cher, Sassay, Seigy, Soings-en-Sologne, Thenay, Thésée, Valaire, Vallières-les-Grandes.
-Encépagement
-Les cépages de cette appellation sont le cabernet franc, le cabernet sauvignon, le grolleau, le pineau d'Aunis, le gamay et le côt.
-Méthodes culturales
-Terroir et vins
-Structure des exploitations
-Type de vins et gastronomie
-Commercialisation</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ros%C3%A9-de-loire</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ros%C3%A9-de-loire</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Département de Loir-et-Cher : Angé, Blois, Bourré, Chailles, Chambon-sur-Cisse, Châteauvieux, Châtillon-sur-Cher, Chaumont-sur-Loire, Chémery, Chissay-en-Touraine, Choussy, Chouzy-sur-Cisse, Contres, Couddes, Couffi, Faverolles-sur-Cher, Mareuil-sur-Cher, Méhers, Mesland, Meusnes, Molineuf, Monteaux, Monthou-sur-Bièvre, Monthou-sur-Cher, Montrichard, Noyers-sur-Cher, Oisly, Onzain, Pontlevoy, Pouillé, Rilly-sur-Loire, Saint-Aignan, Saint-Georges-sur-Cher, Saint-Julien-de-Chedon, Saint-Romain-sur-Cher, Sassay, Seigy, Soings-en-Sologne, Thenay, Thésée, Valaire, Vallières-les-Grandes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rosé-de-loire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ros%C3%A9-de-loire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages de cette appellation sont le cabernet franc, le cabernet sauvignon, le grolleau, le pineau d'Aunis, le gamay et le côt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rosé-de-loire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ros%C3%A9-de-loire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rosé-de-loire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ros%C3%A9-de-loire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Les principaux producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
